--- a/data/trans_camb/P35_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 23,28</t>
+          <t>-6,11; 22,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 20,77</t>
+          <t>-5,0; 23,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,52</t>
+          <t>-7,08; 22,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,82</t>
+          <t>-7,74; 5,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 9,76</t>
+          <t>-7,19; 6,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 9,01</t>
+          <t>-10,29; 1,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 10,98</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 11,29</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 9,42</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>130,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>134,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,52%</t>
+          <t>117,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-45,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>-8,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>-60,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42,84%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 174,82</t>
+          <t>-67,27; 1509,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 150,97</t>
+          <t>-56,71; 1057,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,68; 1191,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,17; 398,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 121,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 116,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-42,23; 526,85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,97; 520,65</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-61,34; 429,54</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 3,31</t>
+          <t>-15,27; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 3,41</t>
+          <t>-14,53; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,65</t>
+          <t>-13,65; 6,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,33</t>
+          <t>-7,45; 1,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,47</t>
+          <t>-5,78; 4,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,55</t>
+          <t>-6,08; 5,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,19; 0,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,68; 2,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 3,99</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>-22,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-30,56%</t>
+          <t>-12,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,4%</t>
+          <t>-39,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,95%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,61%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 21,47</t>
+          <t>-53,53; 16,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 22,37</t>
+          <t>-52,03; 19,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 42,1</t>
+          <t>-48,47; 34,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 33,03</t>
+          <t>-74,56; 43,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 14,3</t>
+          <t>-59,11; 99,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 16,22</t>
+          <t>-64,0; 106,39</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-52,42; 7,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,39; 17,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,2; 33,94</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 4,0</t>
+          <t>-15,14; 6,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 5,47</t>
+          <t>-14,82; 7,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,49</t>
+          <t>-21,63; -1,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,64</t>
+          <t>-4,74; 6,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,89</t>
+          <t>-6,38; 4,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 2,11</t>
+          <t>-3,2; 8,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 4,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 3,62</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 1,83</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>-17,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,65%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>-47,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,06%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-25,47%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 27,12</t>
+          <t>-54,22; 41,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 36,28</t>
+          <t>-50,84; 47,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,17; 126,13</t>
+          <t>-73,17; -5,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 76,49</t>
+          <t>-52,19; 146,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 27,16</t>
+          <t>-65,14; 99,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 20,78</t>
+          <t>-35,89; 173,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-44,69; 41,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-45,2; 39,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-55,47; 18,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 24,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 19,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 40,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 26,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 17,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 17,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 3,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 4,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,78; 2,35</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 2,08</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 2,09</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 3,53</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 1,66</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 2,38</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 2,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-13,89%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-12,32%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-20,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-17,29%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-12,91%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,8%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-14,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-40,52; 20,64</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,06; 27,38</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-44,68; 15,93</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-53,17; 44,67</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-50,91; 43,64</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-46,21; 75,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 14,35</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; 21,65</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; 19,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
